--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu\Documents\GitHub\Enterprise-Web-Software-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE703392-3867-584D-A49D-410343D03C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA724C-65B4-401D-A1E1-CAA64979FFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{011169C7-95A6-3841-8DC5-31CAAC6C1ACA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{011169C7-95A6-3841-8DC5-31CAAC6C1ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
@@ -220,15 +220,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6DDC491B-2D41-A44C-A36A-D7E7BA31DE36}" name="Table2" displayName="Table2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6DDC491B-2D41-A44C-A36A-D7E7BA31DE36}" name="Table2" displayName="Table2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F12" xr:uid="{6A8D09B6-6AC9-B54D-A222-EDCA9867E203}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B68FDF3D-C70E-A74C-8473-97CD8225B452}" name="No." dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A8745B78-4725-6540-84FB-19D911AB495A}" name="Type" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A5673F9C-AEF0-5244-9ABE-FB6D263A974E}" name="Name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7D7B46BB-E43D-CA4C-82D9-4264CD11996A}" name="Description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A88174E0-2F6F-6847-872D-FC23BCF9F80B}" name="Assign" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0CB2C477-62F4-7B48-84B3-409348F8EBCA}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B68FDF3D-C70E-A74C-8473-97CD8225B452}" name="No." dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A8745B78-4725-6540-84FB-19D911AB495A}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A5673F9C-AEF0-5244-9ABE-FB6D263A974E}" name="Name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7D7B46BB-E43D-CA4C-82D9-4264CD11996A}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A88174E0-2F6F-6847-872D-FC23BCF9F80B}" name="Assign" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0CB2C477-62F4-7B48-84B3-409348F8EBCA}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -534,18 +534,18 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -645,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -705,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -745,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -765,7 +765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu\Documents\GitHub\Enterprise-Web-Software-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminX\Documents\GitHub\Enterprise-Web-Software-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA724C-65B4-401D-A1E1-CAA64979FFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{011169C7-95A6-3841-8DC5-31CAAC6C1ACA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -220,15 +219,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6DDC491B-2D41-A44C-A36A-D7E7BA31DE36}" name="Table2" displayName="Table2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F12" xr:uid="{6A8D09B6-6AC9-B54D-A222-EDCA9867E203}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F12"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B68FDF3D-C70E-A74C-8473-97CD8225B452}" name="No." dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A8745B78-4725-6540-84FB-19D911AB495A}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A5673F9C-AEF0-5244-9ABE-FB6D263A974E}" name="Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7D7B46BB-E43D-CA4C-82D9-4264CD11996A}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A88174E0-2F6F-6847-872D-FC23BCF9F80B}" name="Assign" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0CB2C477-62F4-7B48-84B3-409348F8EBCA}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="5"/>
+    <tableColumn id="2" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" name="Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" name="Assign" dataDxfId="1"/>
+    <tableColumn id="6" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B559E4A-2643-CE49-B09F-9D0D7B196415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
